--- a/docs/template-basic.xlsx
+++ b/docs/template-basic.xlsx
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}temp-1:Identifier SHALL be greater than 5 characters {Identifier.value.length()&gt;5}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}temp-1:Identifier SHALL be greater than 5 characters {Identifier.value.length()&gt;5}</t>
   </si>
   <si>
     <t>Act, Entity or Role</t>
@@ -166,7 +166,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -198,6 +198,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Basic.implicitRules</t>
   </si>
   <si>
@@ -320,6 +324,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Simple_Extension</t>
   </si>
   <si>
@@ -337,10 +345,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Complex_Extension</t>
   </si>
   <si>
@@ -436,10 +440,6 @@
   </si>
   <si>
     <t>Basic.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1299,7 +1299,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>41</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1333,16 +1333,16 @@
         <v>48</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1404,7 +1404,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>41</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1438,16 +1438,16 @@
         <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1473,13 +1473,13 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>41</v>
@@ -1497,7 +1497,7 @@
         <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
@@ -1509,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>41</v>
@@ -1520,11 +1520,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1543,16 +1543,16 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1602,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>39</v>
@@ -1614,10 +1614,10 @@
         <v>41</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>41</v>
@@ -1625,11 +1625,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1648,16 +1648,16 @@
         <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1707,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -1722,7 +1722,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1753,13 +1753,13 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1798,17 +1798,17 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
@@ -1820,7 +1820,7 @@
         <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>41</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>41</v>
@@ -1856,13 +1856,13 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1913,7 +1913,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -1922,10 +1922,10 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
@@ -1961,13 +1961,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2018,7 +2018,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2027,10 +2027,10 @@
         <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
@@ -2041,11 +2041,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2064,19 +2064,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2125,7 +2125,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2137,10 +2137,10 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2171,13 +2171,13 @@
         <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2228,7 +2228,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2237,21 +2237,21 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2274,19 +2274,19 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2311,13 +2311,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -2335,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>47</v>
@@ -2347,18 +2347,18 @@
         <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2381,7 +2381,7 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>134</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2484,7 +2484,7 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>139</v>
@@ -2493,7 +2493,7 @@
         <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2531,7 +2531,7 @@
         <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>141</v>
@@ -2540,7 +2540,7 @@
         <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>142</v>
@@ -2555,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>137</v>
@@ -2662,7 +2662,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>150</v>
@@ -2696,7 +2696,7 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>134</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2799,7 +2799,7 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>139</v>
@@ -2808,7 +2808,7 @@
         <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2846,7 +2846,7 @@
         <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>141</v>
@@ -2855,7 +2855,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>142</v>
@@ -2870,7 +2870,7 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>137</v>
@@ -2904,7 +2904,7 @@
         <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>154</v>
@@ -2977,7 +2977,7 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>159</v>
@@ -3011,7 +3011,7 @@
         <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>161</v>
@@ -3082,7 +3082,7 @@
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>165</v>
@@ -3116,7 +3116,7 @@
         <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>167</v>
@@ -3187,10 +3187,10 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -3221,7 +3221,7 @@
         <v>48</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>173</v>
@@ -3292,7 +3292,7 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>177</v>
@@ -3399,7 +3399,7 @@
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>185</v>
@@ -3433,7 +3433,7 @@
         <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>187</v>
@@ -3506,7 +3506,7 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>192</v>
@@ -3613,7 +3613,7 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>199</v>
@@ -3718,7 +3718,7 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>206</v>
@@ -3823,7 +3823,7 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>213</v>

--- a/docs/template-basic.xlsx
+++ b/docs/template-basic.xlsx
@@ -624,7 +624,7 @@
     <t>Basic.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
